--- a/leave/src/main/resources/TestData/LeaveSettings/AccordionSettings.xlsx
+++ b/leave/src/main/resources/TestData/LeaveSettings/AccordionSettings.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7109D50-721F-4FED-84D0-86B0CD69A05D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9723E421-D16B-405A-AEE5-19A6302A7485}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="CreatePolicy" sheetId="1" r:id="rId1"/>
     <sheet name="TestCases" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="334">
   <si>
     <t>Test Case</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>ApplyMreThnAvlLveBal_20</t>
-  </si>
-  <si>
-    <t>ApplyMreThnAvlLveBal_21</t>
   </si>
   <si>
     <t>ApplyMreThnAvlLveBal_22</t>
@@ -952,6 +949,81 @@
   </si>
   <si>
     <t>Options</t>
+  </si>
+  <si>
+    <t>Auto_OverUtilization_01</t>
+  </si>
+  <si>
+    <t>Auto_OverUtilization_02</t>
+  </si>
+  <si>
+    <t>Auto_OverUtilization_03</t>
+  </si>
+  <si>
+    <t>Auto_OverUtilization_04</t>
+  </si>
+  <si>
+    <t>Auto_OverUtilization_05</t>
+  </si>
+  <si>
+    <t>Auto_OverUtilization_06</t>
+  </si>
+  <si>
+    <t>Auto_OverUtilization_07</t>
+  </si>
+  <si>
+    <t>Auto_OverUtilization_08</t>
+  </si>
+  <si>
+    <t>Auto_OverUtilization_09</t>
+  </si>
+  <si>
+    <t>Auto_OverUtilization_10</t>
+  </si>
+  <si>
+    <t>Auto_OverUtilization_11</t>
+  </si>
+  <si>
+    <t>Auto_OverUtilization_12</t>
+  </si>
+  <si>
+    <t>Auto_OverUtilization_13</t>
+  </si>
+  <si>
+    <t>Auto_OverUtilization_14</t>
+  </si>
+  <si>
+    <t>Auto_OverUtilization_15</t>
+  </si>
+  <si>
+    <t>Auto_OverUtilization_16</t>
+  </si>
+  <si>
+    <t>Auto_OverUtilization_17</t>
+  </si>
+  <si>
+    <t>Auto_OverUtilization_18</t>
+  </si>
+  <si>
+    <t>Auto_OverUtilization_19</t>
+  </si>
+  <si>
+    <t>Auto_OverUtilization_20</t>
+  </si>
+  <si>
+    <t>Auto_OverUtilization_21</t>
+  </si>
+  <si>
+    <t>Auto_OverUtilization_22</t>
+  </si>
+  <si>
+    <t>Auto_OverUtilization_23</t>
+  </si>
+  <si>
+    <t>Auto_OverUtilization_24</t>
+  </si>
+  <si>
+    <t>Auto_OverUtilization_25</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1084,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1021,18 +1093,14 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1320,9 +1388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1332,7 +1398,7 @@
     <col min="9" max="9" width="18.6640625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="30.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" style="10" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" style="5" customWidth="1"/>
     <col min="13" max="13" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1365,10 +1431,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>13</v>
@@ -1377,13 +1443,13 @@
         <v>14</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1391,13 +1457,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>17</v>
@@ -1420,19 +1486,19 @@
       <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>81</v>
+      <c r="L2" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="11" t="s">
+      <c r="N2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1441,13 +1507,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>310</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>17</v>
@@ -1470,19 +1536,19 @@
       <c r="K3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>82</v>
+      <c r="L3" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="11" t="s">
+      <c r="N3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1491,13 +1557,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>311</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>17</v>
@@ -1520,19 +1586,19 @@
       <c r="K4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>81</v>
+      <c r="L4" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="11" t="s">
+      <c r="N4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1541,13 +1607,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>29</v>
+        <v>312</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>17</v>
@@ -1570,19 +1636,19 @@
       <c r="K5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>82</v>
+      <c r="L5" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="11" t="s">
+      <c r="N5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1591,13 +1657,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>30</v>
+        <v>313</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>17</v>
@@ -1620,19 +1686,19 @@
       <c r="K6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="10" t="s">
-        <v>81</v>
+      <c r="L6" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="11" t="s">
+      <c r="N6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1641,13 +1707,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>31</v>
+        <v>314</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
@@ -1670,19 +1736,19 @@
       <c r="K7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="10" t="s">
-        <v>82</v>
+      <c r="L7" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P7" s="11" t="s">
+      <c r="N7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1691,13 +1757,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>32</v>
+        <v>315</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>17</v>
@@ -1720,19 +1786,19 @@
       <c r="K8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="10" t="s">
-        <v>81</v>
+      <c r="L8" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P8" s="11" t="s">
+      <c r="N8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1741,13 +1807,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>316</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>17</v>
@@ -1770,19 +1836,19 @@
       <c r="K9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>82</v>
+      <c r="L9" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P9" s="11" t="s">
+      <c r="N9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1791,13 +1857,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>34</v>
+        <v>317</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>17</v>
@@ -1820,19 +1886,19 @@
       <c r="K10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="10" t="s">
-        <v>81</v>
+      <c r="L10" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P10" s="11" t="s">
+      <c r="N10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1841,13 +1907,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>35</v>
+        <v>318</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>17</v>
@@ -1870,19 +1936,19 @@
       <c r="K11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="10" t="s">
-        <v>82</v>
+      <c r="L11" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P11" s="11" t="s">
+      <c r="N11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1891,13 +1957,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>36</v>
+        <v>319</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>17</v>
@@ -1920,19 +1986,19 @@
       <c r="K12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="10" t="s">
-        <v>81</v>
+      <c r="L12" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P12" s="11" t="s">
+      <c r="N12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1941,13 +2007,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>17</v>
@@ -1970,19 +2036,19 @@
       <c r="K13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="10" t="s">
-        <v>82</v>
+      <c r="L13" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P13" s="11" t="s">
+      <c r="N13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1991,13 +2057,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>38</v>
+        <v>321</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>17</v>
@@ -2020,19 +2086,19 @@
       <c r="K14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="10" t="s">
-        <v>81</v>
+      <c r="L14" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P14" s="11" t="s">
+      <c r="N14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2041,13 +2107,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>322</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>17</v>
@@ -2070,19 +2136,19 @@
       <c r="K15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="10" t="s">
-        <v>82</v>
+      <c r="L15" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P15" s="11" t="s">
+      <c r="N15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2091,13 +2157,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>40</v>
+        <v>323</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>17</v>
@@ -2120,19 +2186,19 @@
       <c r="K16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="10" t="s">
-        <v>81</v>
+      <c r="L16" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P16" s="11" t="s">
+      <c r="N16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P16" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2141,13 +2207,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>41</v>
+        <v>324</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>17</v>
@@ -2170,19 +2236,19 @@
       <c r="K17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="10" t="s">
-        <v>82</v>
+      <c r="L17" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P17" s="11" t="s">
+      <c r="N17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P17" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2191,13 +2257,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>42</v>
+        <v>325</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>17</v>
@@ -2220,19 +2286,19 @@
       <c r="K18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="10" t="s">
-        <v>81</v>
+      <c r="L18" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P18" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2241,13 +2307,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>43</v>
+        <v>326</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>17</v>
@@ -2270,19 +2336,19 @@
       <c r="K19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="10" t="s">
-        <v>82</v>
+      <c r="L19" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2291,13 +2357,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>17</v>
@@ -2320,19 +2386,19 @@
       <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="10" t="s">
-        <v>81</v>
+      <c r="L20" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2341,13 +2407,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>17</v>
@@ -2370,19 +2436,19 @@
       <c r="K21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="10" t="s">
-        <v>82</v>
+      <c r="L21" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P21" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2391,13 +2457,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>46</v>
+        <v>329</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>17</v>
@@ -2420,19 +2486,19 @@
       <c r="K22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>81</v>
+      <c r="L22" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P22" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2441,13 +2507,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>17</v>
@@ -2470,19 +2536,19 @@
       <c r="K23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="10" t="s">
-        <v>82</v>
+      <c r="L23" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P23" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P23" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2491,13 +2557,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>17</v>
@@ -2520,19 +2586,19 @@
       <c r="K24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L24" s="10" t="s">
-        <v>81</v>
+      <c r="L24" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N24" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P24" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P24" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2541,13 +2607,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>49</v>
+        <v>332</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>17</v>
@@ -2570,19 +2636,19 @@
       <c r="K25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L25" s="10" t="s">
-        <v>82</v>
+      <c r="L25" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N25" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O25" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P25" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2591,13 +2657,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>51</v>
+        <v>333</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>17</v>
@@ -2620,905 +2686,905 @@
       <c r="K26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="10" t="s">
-        <v>82</v>
+      <c r="L26" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N26" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O26" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P26" s="11" t="s">
+      <c r="N26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P26" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
     </row>
     <row r="33" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
     </row>
     <row r="34" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
     </row>
     <row r="35" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
     </row>
     <row r="36" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
     </row>
     <row r="37" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
     </row>
     <row r="38" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
     </row>
     <row r="39" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
     </row>
     <row r="40" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
     </row>
     <row r="41" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
     </row>
     <row r="42" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
     </row>
     <row r="43" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
     </row>
     <row r="44" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
     </row>
     <row r="45" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
     </row>
     <row r="46" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
     </row>
     <row r="47" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
     </row>
     <row r="48" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
     </row>
     <row r="49" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
     </row>
     <row r="50" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
     </row>
     <row r="51" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
     </row>
     <row r="52" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
     </row>
     <row r="53" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
     </row>
     <row r="54" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
     </row>
     <row r="55" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
     </row>
     <row r="56" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
     </row>
     <row r="57" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
     </row>
     <row r="58" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
     </row>
     <row r="59" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
     </row>
     <row r="60" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
     </row>
     <row r="61" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
     </row>
     <row r="62" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
     </row>
     <row r="63" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
     </row>
     <row r="64" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
     </row>
     <row r="65" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
     </row>
     <row r="66" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
     </row>
     <row r="67" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
     </row>
     <row r="68" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N68" s="11"/>
-      <c r="O68" s="11"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
     </row>
     <row r="69" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
     </row>
     <row r="70" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
     </row>
     <row r="71" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
     </row>
     <row r="72" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
     </row>
     <row r="73" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
     </row>
     <row r="74" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N74" s="11"/>
-      <c r="O74" s="11"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
     </row>
     <row r="75" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
     </row>
     <row r="76" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
     </row>
     <row r="77" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N77" s="11"/>
-      <c r="O77" s="11"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
     </row>
     <row r="78" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
     </row>
     <row r="79" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N79" s="11"/>
-      <c r="O79" s="11"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
     </row>
     <row r="80" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N80" s="11"/>
-      <c r="O80" s="11"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
     </row>
     <row r="81" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N81" s="11"/>
-      <c r="O81" s="11"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
     </row>
     <row r="82" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N82" s="11"/>
-      <c r="O82" s="11"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
     </row>
     <row r="83" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N83" s="11"/>
-      <c r="O83" s="11"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
     </row>
     <row r="84" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N84" s="11"/>
-      <c r="O84" s="11"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
     </row>
     <row r="85" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N85" s="11"/>
-      <c r="O85" s="11"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
     </row>
     <row r="86" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N86" s="11"/>
-      <c r="O86" s="11"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
     </row>
     <row r="87" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N87" s="11"/>
-      <c r="O87" s="11"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
     </row>
     <row r="88" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N88" s="11"/>
-      <c r="O88" s="11"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
     </row>
     <row r="89" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N89" s="11"/>
-      <c r="O89" s="11"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
     </row>
     <row r="90" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N90" s="11"/>
-      <c r="O90" s="11"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
     </row>
     <row r="91" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N91" s="11"/>
-      <c r="O91" s="11"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
     </row>
     <row r="92" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N92" s="11"/>
-      <c r="O92" s="11"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
     </row>
     <row r="93" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N93" s="11"/>
-      <c r="O93" s="11"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
     </row>
     <row r="94" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N94" s="11"/>
-      <c r="O94" s="11"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
     </row>
     <row r="95" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N95" s="11"/>
-      <c r="O95" s="11"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
     </row>
     <row r="96" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N96" s="11"/>
-      <c r="O96" s="11"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
     </row>
     <row r="97" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N97" s="11"/>
-      <c r="O97" s="11"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
     </row>
     <row r="98" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N98" s="11"/>
-      <c r="O98" s="11"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
     </row>
     <row r="99" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N99" s="11"/>
-      <c r="O99" s="11"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
     </row>
     <row r="100" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N100" s="11"/>
-      <c r="O100" s="11"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
     </row>
     <row r="101" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N101" s="11"/>
-      <c r="O101" s="11"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
     </row>
     <row r="102" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N102" s="11"/>
-      <c r="O102" s="11"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
     </row>
     <row r="103" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N103" s="11"/>
-      <c r="O103" s="11"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
     </row>
     <row r="104" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N104" s="11"/>
-      <c r="O104" s="11"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
     </row>
     <row r="105" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N105" s="11"/>
-      <c r="O105" s="11"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
     </row>
     <row r="106" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N106" s="11"/>
-      <c r="O106" s="11"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
     </row>
     <row r="107" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N107" s="11"/>
-      <c r="O107" s="11"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
     </row>
     <row r="108" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N108" s="11"/>
-      <c r="O108" s="11"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
     </row>
     <row r="109" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N109" s="11"/>
-      <c r="O109" s="11"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
     </row>
     <row r="110" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N110" s="11"/>
-      <c r="O110" s="11"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
     </row>
     <row r="111" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N111" s="11"/>
-      <c r="O111" s="11"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
     </row>
     <row r="112" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N112" s="11"/>
-      <c r="O112" s="11"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
     </row>
     <row r="113" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N113" s="11"/>
-      <c r="O113" s="11"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
     </row>
     <row r="114" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N114" s="11"/>
-      <c r="O114" s="11"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
     </row>
     <row r="115" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N115" s="11"/>
-      <c r="O115" s="11"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
     </row>
     <row r="116" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N116" s="11"/>
-      <c r="O116" s="11"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
     </row>
     <row r="117" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N117" s="11"/>
-      <c r="O117" s="11"/>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
     </row>
     <row r="118" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N118" s="11"/>
-      <c r="O118" s="11"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
     </row>
     <row r="119" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N119" s="11"/>
-      <c r="O119" s="11"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="4"/>
     </row>
     <row r="120" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N120" s="11"/>
-      <c r="O120" s="11"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
     </row>
     <row r="121" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N121" s="11"/>
-      <c r="O121" s="11"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
     </row>
     <row r="122" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N122" s="11"/>
-      <c r="O122" s="11"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
     </row>
     <row r="123" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N123" s="11"/>
-      <c r="O123" s="11"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
     </row>
     <row r="124" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N124" s="11"/>
-      <c r="O124" s="11"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
     </row>
     <row r="125" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N125" s="11"/>
-      <c r="O125" s="11"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
     </row>
     <row r="126" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N126" s="11"/>
-      <c r="O126" s="11"/>
+      <c r="N126" s="4"/>
+      <c r="O126" s="4"/>
     </row>
     <row r="127" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N127" s="11"/>
-      <c r="O127" s="11"/>
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
     </row>
     <row r="128" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N128" s="11"/>
-      <c r="O128" s="11"/>
+      <c r="N128" s="4"/>
+      <c r="O128" s="4"/>
     </row>
     <row r="129" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N129" s="11"/>
-      <c r="O129" s="11"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
     </row>
     <row r="130" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N130" s="11"/>
-      <c r="O130" s="11"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
     </row>
     <row r="131" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N131" s="11"/>
-      <c r="O131" s="11"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
     </row>
     <row r="132" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N132" s="11"/>
-      <c r="O132" s="11"/>
+      <c r="N132" s="4"/>
+      <c r="O132" s="4"/>
     </row>
     <row r="133" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N133" s="11"/>
-      <c r="O133" s="11"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
     </row>
     <row r="134" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N134" s="11"/>
-      <c r="O134" s="11"/>
+      <c r="N134" s="4"/>
+      <c r="O134" s="4"/>
     </row>
     <row r="135" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N135" s="11"/>
-      <c r="O135" s="11"/>
+      <c r="N135" s="4"/>
+      <c r="O135" s="4"/>
     </row>
     <row r="136" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N136" s="11"/>
-      <c r="O136" s="11"/>
+      <c r="N136" s="4"/>
+      <c r="O136" s="4"/>
     </row>
     <row r="137" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N137" s="11"/>
-      <c r="O137" s="11"/>
+      <c r="N137" s="4"/>
+      <c r="O137" s="4"/>
     </row>
     <row r="138" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N138" s="11"/>
-      <c r="O138" s="11"/>
+      <c r="N138" s="4"/>
+      <c r="O138" s="4"/>
     </row>
     <row r="139" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N139" s="11"/>
-      <c r="O139" s="11"/>
+      <c r="N139" s="4"/>
+      <c r="O139" s="4"/>
     </row>
     <row r="140" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N140" s="11"/>
-      <c r="O140" s="11"/>
+      <c r="N140" s="4"/>
+      <c r="O140" s="4"/>
     </row>
     <row r="141" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N141" s="11"/>
-      <c r="O141" s="11"/>
+      <c r="N141" s="4"/>
+      <c r="O141" s="4"/>
     </row>
     <row r="142" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N142" s="11"/>
-      <c r="O142" s="11"/>
+      <c r="N142" s="4"/>
+      <c r="O142" s="4"/>
     </row>
     <row r="143" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N143" s="11"/>
-      <c r="O143" s="11"/>
+      <c r="N143" s="4"/>
+      <c r="O143" s="4"/>
     </row>
     <row r="144" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N144" s="11"/>
-      <c r="O144" s="11"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="4"/>
     </row>
     <row r="145" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N145" s="11"/>
-      <c r="O145" s="11"/>
+      <c r="N145" s="4"/>
+      <c r="O145" s="4"/>
     </row>
     <row r="146" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N146" s="11"/>
-      <c r="O146" s="11"/>
+      <c r="N146" s="4"/>
+      <c r="O146" s="4"/>
     </row>
     <row r="147" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N147" s="11"/>
-      <c r="O147" s="11"/>
+      <c r="N147" s="4"/>
+      <c r="O147" s="4"/>
     </row>
     <row r="148" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N148" s="11"/>
-      <c r="O148" s="11"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="4"/>
     </row>
     <row r="149" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N149" s="11"/>
-      <c r="O149" s="11"/>
+      <c r="N149" s="4"/>
+      <c r="O149" s="4"/>
     </row>
     <row r="150" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N150" s="11"/>
-      <c r="O150" s="11"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="4"/>
     </row>
     <row r="151" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N151" s="11"/>
-      <c r="O151" s="11"/>
+      <c r="N151" s="4"/>
+      <c r="O151" s="4"/>
     </row>
     <row r="152" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N152" s="11"/>
-      <c r="O152" s="11"/>
+      <c r="N152" s="4"/>
+      <c r="O152" s="4"/>
     </row>
     <row r="153" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N153" s="11"/>
-      <c r="O153" s="11"/>
+      <c r="N153" s="4"/>
+      <c r="O153" s="4"/>
     </row>
     <row r="154" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N154" s="11"/>
-      <c r="O154" s="11"/>
+      <c r="N154" s="4"/>
+      <c r="O154" s="4"/>
     </row>
     <row r="155" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N155" s="11"/>
-      <c r="O155" s="11"/>
+      <c r="N155" s="4"/>
+      <c r="O155" s="4"/>
     </row>
     <row r="156" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N156" s="11"/>
-      <c r="O156" s="11"/>
+      <c r="N156" s="4"/>
+      <c r="O156" s="4"/>
     </row>
     <row r="157" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N157" s="11"/>
-      <c r="O157" s="11"/>
+      <c r="N157" s="4"/>
+      <c r="O157" s="4"/>
     </row>
     <row r="158" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N158" s="11"/>
-      <c r="O158" s="11"/>
+      <c r="N158" s="4"/>
+      <c r="O158" s="4"/>
     </row>
     <row r="159" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N159" s="11"/>
-      <c r="O159" s="11"/>
+      <c r="N159" s="4"/>
+      <c r="O159" s="4"/>
     </row>
     <row r="160" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N160" s="11"/>
-      <c r="O160" s="11"/>
+      <c r="N160" s="4"/>
+      <c r="O160" s="4"/>
     </row>
     <row r="161" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N161" s="11"/>
-      <c r="O161" s="11"/>
+      <c r="N161" s="4"/>
+      <c r="O161" s="4"/>
     </row>
     <row r="162" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N162" s="11"/>
-      <c r="O162" s="11"/>
+      <c r="N162" s="4"/>
+      <c r="O162" s="4"/>
     </row>
     <row r="163" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N163" s="11"/>
-      <c r="O163" s="11"/>
+      <c r="N163" s="4"/>
+      <c r="O163" s="4"/>
     </row>
     <row r="164" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N164" s="11"/>
-      <c r="O164" s="11"/>
+      <c r="N164" s="4"/>
+      <c r="O164" s="4"/>
     </row>
     <row r="165" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N165" s="11"/>
-      <c r="O165" s="11"/>
+      <c r="N165" s="4"/>
+      <c r="O165" s="4"/>
     </row>
     <row r="166" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N166" s="11"/>
-      <c r="O166" s="11"/>
+      <c r="N166" s="4"/>
+      <c r="O166" s="4"/>
     </row>
     <row r="167" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N167" s="11"/>
-      <c r="O167" s="11"/>
+      <c r="N167" s="4"/>
+      <c r="O167" s="4"/>
     </row>
     <row r="168" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N168" s="11"/>
-      <c r="O168" s="11"/>
+      <c r="N168" s="4"/>
+      <c r="O168" s="4"/>
     </row>
     <row r="169" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N169" s="11"/>
-      <c r="O169" s="11"/>
+      <c r="N169" s="4"/>
+      <c r="O169" s="4"/>
     </row>
     <row r="170" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N170" s="11"/>
-      <c r="O170" s="11"/>
+      <c r="N170" s="4"/>
+      <c r="O170" s="4"/>
     </row>
     <row r="171" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N171" s="11"/>
-      <c r="O171" s="11"/>
+      <c r="N171" s="4"/>
+      <c r="O171" s="4"/>
     </row>
     <row r="172" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N172" s="11"/>
-      <c r="O172" s="11"/>
+      <c r="N172" s="4"/>
+      <c r="O172" s="4"/>
     </row>
     <row r="173" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N173" s="11"/>
-      <c r="O173" s="11"/>
+      <c r="N173" s="4"/>
+      <c r="O173" s="4"/>
     </row>
     <row r="174" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N174" s="11"/>
-      <c r="O174" s="11"/>
+      <c r="N174" s="4"/>
+      <c r="O174" s="4"/>
     </row>
     <row r="175" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N175" s="11"/>
-      <c r="O175" s="11"/>
+      <c r="N175" s="4"/>
+      <c r="O175" s="4"/>
     </row>
     <row r="176" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N176" s="11"/>
-      <c r="O176" s="11"/>
+      <c r="N176" s="4"/>
+      <c r="O176" s="4"/>
     </row>
     <row r="177" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N177" s="11"/>
-      <c r="O177" s="11"/>
+      <c r="N177" s="4"/>
+      <c r="O177" s="4"/>
     </row>
     <row r="178" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N178" s="11"/>
-      <c r="O178" s="11"/>
+      <c r="N178" s="4"/>
+      <c r="O178" s="4"/>
     </row>
     <row r="179" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N179" s="11"/>
-      <c r="O179" s="11"/>
+      <c r="N179" s="4"/>
+      <c r="O179" s="4"/>
     </row>
     <row r="180" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N180" s="11"/>
-      <c r="O180" s="11"/>
+      <c r="N180" s="4"/>
+      <c r="O180" s="4"/>
     </row>
     <row r="181" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N181" s="11"/>
-      <c r="O181" s="11"/>
+      <c r="N181" s="4"/>
+      <c r="O181" s="4"/>
     </row>
     <row r="182" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N182" s="11"/>
-      <c r="O182" s="11"/>
+      <c r="N182" s="4"/>
+      <c r="O182" s="4"/>
     </row>
     <row r="183" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N183" s="11"/>
-      <c r="O183" s="11"/>
+      <c r="N183" s="4"/>
+      <c r="O183" s="4"/>
     </row>
     <row r="184" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N184" s="11"/>
-      <c r="O184" s="11"/>
+      <c r="N184" s="4"/>
+      <c r="O184" s="4"/>
     </row>
     <row r="185" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N185" s="11"/>
-      <c r="O185" s="11"/>
+      <c r="N185" s="4"/>
+      <c r="O185" s="4"/>
     </row>
     <row r="186" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N186" s="11"/>
-      <c r="O186" s="11"/>
+      <c r="N186" s="4"/>
+      <c r="O186" s="4"/>
     </row>
     <row r="187" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N187" s="11"/>
-      <c r="O187" s="11"/>
+      <c r="N187" s="4"/>
+      <c r="O187" s="4"/>
     </row>
     <row r="188" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N188" s="11"/>
-      <c r="O188" s="11"/>
+      <c r="N188" s="4"/>
+      <c r="O188" s="4"/>
     </row>
     <row r="189" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N189" s="11"/>
-      <c r="O189" s="11"/>
+      <c r="N189" s="4"/>
+      <c r="O189" s="4"/>
     </row>
     <row r="190" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N190" s="11"/>
-      <c r="O190" s="11"/>
+      <c r="N190" s="4"/>
+      <c r="O190" s="4"/>
     </row>
     <row r="191" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N191" s="11"/>
-      <c r="O191" s="11"/>
+      <c r="N191" s="4"/>
+      <c r="O191" s="4"/>
     </row>
     <row r="192" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N192" s="11"/>
-      <c r="O192" s="11"/>
+      <c r="N192" s="4"/>
+      <c r="O192" s="4"/>
     </row>
     <row r="193" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N193" s="11"/>
-      <c r="O193" s="11"/>
+      <c r="N193" s="4"/>
+      <c r="O193" s="4"/>
     </row>
     <row r="194" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N194" s="11"/>
-      <c r="O194" s="11"/>
+      <c r="N194" s="4"/>
+      <c r="O194" s="4"/>
     </row>
     <row r="195" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N195" s="11"/>
-      <c r="O195" s="11"/>
+      <c r="N195" s="4"/>
+      <c r="O195" s="4"/>
     </row>
     <row r="196" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N196" s="11"/>
-      <c r="O196" s="11"/>
+      <c r="N196" s="4"/>
+      <c r="O196" s="4"/>
     </row>
     <row r="197" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N197" s="11"/>
-      <c r="O197" s="11"/>
+      <c r="N197" s="4"/>
+      <c r="O197" s="4"/>
     </row>
     <row r="198" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N198" s="11"/>
-      <c r="O198" s="11"/>
+      <c r="N198" s="4"/>
+      <c r="O198" s="4"/>
     </row>
     <row r="199" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N199" s="11"/>
-      <c r="O199" s="11"/>
+      <c r="N199" s="4"/>
+      <c r="O199" s="4"/>
     </row>
     <row r="200" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N200" s="11"/>
-      <c r="O200" s="11"/>
+      <c r="N200" s="4"/>
+      <c r="O200" s="4"/>
     </row>
     <row r="201" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N201" s="11"/>
-      <c r="O201" s="11"/>
+      <c r="N201" s="4"/>
+      <c r="O201" s="4"/>
     </row>
     <row r="202" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N202" s="11"/>
-      <c r="O202" s="11"/>
+      <c r="N202" s="4"/>
+      <c r="O202" s="4"/>
     </row>
     <row r="203" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N203" s="11"/>
-      <c r="O203" s="11"/>
+      <c r="N203" s="4"/>
+      <c r="O203" s="4"/>
     </row>
     <row r="204" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N204" s="11"/>
-      <c r="O204" s="11"/>
+      <c r="N204" s="4"/>
+      <c r="O204" s="4"/>
     </row>
     <row r="205" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N205" s="11"/>
-      <c r="O205" s="11"/>
+      <c r="N205" s="4"/>
+      <c r="O205" s="4"/>
     </row>
     <row r="206" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N206" s="11"/>
-      <c r="O206" s="11"/>
+      <c r="N206" s="4"/>
+      <c r="O206" s="4"/>
     </row>
     <row r="207" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N207" s="11"/>
-      <c r="O207" s="11"/>
+      <c r="N207" s="4"/>
+      <c r="O207" s="4"/>
     </row>
     <row r="208" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N208" s="11"/>
-      <c r="O208" s="11"/>
+      <c r="N208" s="4"/>
+      <c r="O208" s="4"/>
     </row>
     <row r="209" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N209" s="11"/>
-      <c r="O209" s="11"/>
+      <c r="N209" s="4"/>
+      <c r="O209" s="4"/>
     </row>
     <row r="210" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N210" s="11"/>
-      <c r="O210" s="11"/>
+      <c r="N210" s="4"/>
+      <c r="O210" s="4"/>
     </row>
     <row r="211" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N211" s="11"/>
-      <c r="O211" s="11"/>
+      <c r="N211" s="4"/>
+      <c r="O211" s="4"/>
     </row>
     <row r="212" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N212" s="11"/>
-      <c r="O212" s="11"/>
+      <c r="N212" s="4"/>
+      <c r="O212" s="4"/>
     </row>
     <row r="213" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N213" s="11"/>
-      <c r="O213" s="11"/>
+      <c r="N213" s="4"/>
+      <c r="O213" s="4"/>
     </row>
     <row r="214" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N214" s="11"/>
-      <c r="O214" s="11"/>
+      <c r="N214" s="4"/>
+      <c r="O214" s="4"/>
     </row>
     <row r="215" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N215" s="11"/>
-      <c r="O215" s="11"/>
+      <c r="N215" s="4"/>
+      <c r="O215" s="4"/>
     </row>
     <row r="216" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N216" s="11"/>
-      <c r="O216" s="11"/>
+      <c r="N216" s="4"/>
+      <c r="O216" s="4"/>
     </row>
     <row r="217" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N217" s="11"/>
-      <c r="O217" s="11"/>
+      <c r="N217" s="4"/>
+      <c r="O217" s="4"/>
     </row>
     <row r="218" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N218" s="11"/>
-      <c r="O218" s="11"/>
+      <c r="N218" s="4"/>
+      <c r="O218" s="4"/>
     </row>
     <row r="219" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N219" s="11"/>
-      <c r="O219" s="11"/>
+      <c r="N219" s="4"/>
+      <c r="O219" s="4"/>
     </row>
     <row r="220" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N220" s="11"/>
-      <c r="O220" s="11"/>
+      <c r="N220" s="4"/>
+      <c r="O220" s="4"/>
     </row>
     <row r="221" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N221" s="11"/>
-      <c r="O221" s="11"/>
+      <c r="N221" s="4"/>
+      <c r="O221" s="4"/>
     </row>
     <row r="222" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N222" s="11"/>
-      <c r="O222" s="11"/>
+      <c r="N222" s="4"/>
+      <c r="O222" s="4"/>
     </row>
     <row r="223" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N223" s="11"/>
-      <c r="O223" s="11"/>
+      <c r="N223" s="4"/>
+      <c r="O223" s="4"/>
     </row>
     <row r="224" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N224" s="11"/>
-      <c r="O224" s="11"/>
+      <c r="N224" s="4"/>
+      <c r="O224" s="4"/>
     </row>
     <row r="225" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N225" s="11"/>
-      <c r="O225" s="11"/>
+      <c r="N225" s="4"/>
+      <c r="O225" s="4"/>
     </row>
     <row r="226" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N226" s="11"/>
-      <c r="O226" s="11"/>
+      <c r="N226" s="4"/>
+      <c r="O226" s="4"/>
     </row>
     <row r="227" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N227" s="11"/>
-      <c r="O227" s="11"/>
+      <c r="N227" s="4"/>
+      <c r="O227" s="4"/>
     </row>
     <row r="228" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N228" s="11"/>
-      <c r="O228" s="11"/>
+      <c r="N228" s="4"/>
+      <c r="O228" s="4"/>
     </row>
     <row r="229" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N229" s="11"/>
-      <c r="O229" s="11"/>
+      <c r="N229" s="4"/>
+      <c r="O229" s="4"/>
     </row>
     <row r="230" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N230" s="11"/>
-      <c r="O230" s="11"/>
+      <c r="N230" s="4"/>
+      <c r="O230" s="4"/>
     </row>
     <row r="231" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N231" s="11"/>
-      <c r="O231" s="11"/>
+      <c r="N231" s="4"/>
+      <c r="O231" s="4"/>
     </row>
     <row r="232" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N232" s="11"/>
-      <c r="O232" s="11"/>
+      <c r="N232" s="4"/>
+      <c r="O232" s="4"/>
     </row>
     <row r="233" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N233" s="11"/>
-      <c r="O233" s="11"/>
+      <c r="N233" s="4"/>
+      <c r="O233" s="4"/>
     </row>
     <row r="234" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N234" s="11"/>
-      <c r="O234" s="11"/>
+      <c r="N234" s="4"/>
+      <c r="O234" s="4"/>
     </row>
     <row r="235" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N235" s="11"/>
-      <c r="O235" s="11"/>
+      <c r="N235" s="4"/>
+      <c r="O235" s="4"/>
     </row>
     <row r="236" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N236" s="11"/>
-      <c r="O236" s="11"/>
+      <c r="N236" s="4"/>
+      <c r="O236" s="4"/>
     </row>
     <row r="237" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N237" s="11"/>
-      <c r="O237" s="11"/>
+      <c r="N237" s="4"/>
+      <c r="O237" s="4"/>
     </row>
     <row r="238" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N238" s="11"/>
-      <c r="O238" s="11"/>
+      <c r="N238" s="4"/>
+      <c r="O238" s="4"/>
     </row>
     <row r="239" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N239" s="11"/>
-      <c r="O239" s="11"/>
+      <c r="N239" s="4"/>
+      <c r="O239" s="4"/>
     </row>
     <row r="240" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N240" s="11"/>
-      <c r="O240" s="11"/>
+      <c r="N240" s="4"/>
+      <c r="O240" s="4"/>
     </row>
     <row r="241" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N241" s="11"/>
-      <c r="O241" s="11"/>
+      <c r="N241" s="4"/>
+      <c r="O241" s="4"/>
     </row>
     <row r="242" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N242" s="11"/>
-      <c r="O242" s="11"/>
+      <c r="N242" s="4"/>
+      <c r="O242" s="4"/>
     </row>
     <row r="243" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N243" s="11"/>
-      <c r="O243" s="11"/>
+      <c r="N243" s="4"/>
+      <c r="O243" s="4"/>
     </row>
     <row r="244" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N244" s="11"/>
-      <c r="O244" s="11"/>
+      <c r="N244" s="4"/>
+      <c r="O244" s="4"/>
     </row>
     <row r="245" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N245" s="11"/>
-      <c r="O245" s="11"/>
+      <c r="N245" s="4"/>
+      <c r="O245" s="4"/>
     </row>
     <row r="246" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N246" s="11"/>
-      <c r="O246" s="11"/>
+      <c r="N246" s="4"/>
+      <c r="O246" s="4"/>
     </row>
     <row r="247" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N247" s="11"/>
-      <c r="O247" s="11"/>
+      <c r="N247" s="4"/>
+      <c r="O247" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3547,7 +3613,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -3555,69 +3621,69 @@
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>27</v>
@@ -3625,25 +3691,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>27</v>
@@ -3651,25 +3717,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>27</v>
@@ -3677,25 +3743,25 @@
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>223</v>
+        <v>146</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="C6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="D6" t="s">
-        <v>290</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>304</v>
-      </c>
       <c r="F6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>28</v>
@@ -3703,66 +3769,66 @@
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>224</v>
+        <v>147</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="E7" s="14"/>
+      <c r="D7" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" s="12"/>
       <c r="F7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>225</v>
+        <v>148</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>294</v>
+        <v>291</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="F8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>226</v>
+        <v>149</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>29</v>
@@ -3770,82 +3836,82 @@
     </row>
     <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>228</v>
+        <v>150</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>227</v>
+        <v>151</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>229</v>
+        <v>152</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>230</v>
+        <v>153</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>30</v>
@@ -3853,62 +3919,62 @@
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>231</v>
+        <v>154</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>232</v>
+        <v>155</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>234</v>
+        <v>156</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>31</v>
@@ -3916,82 +3982,82 @@
     </row>
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>232</v>
+        <v>157</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>159</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>233</v>
+        <v>158</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>235</v>
+        <v>159</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>236</v>
+        <v>160</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>32</v>
@@ -3999,62 +4065,62 @@
     </row>
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>237</v>
+        <v>161</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>163</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>238</v>
+        <v>162</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>239</v>
+        <v>163</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>33</v>
@@ -4062,82 +4128,82 @@
     </row>
     <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>165</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>238</v>
+        <v>164</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>166</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>240</v>
+        <v>165</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>241</v>
+        <v>166</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>168</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>242</v>
+        <v>167</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>34</v>
@@ -4145,22 +4211,22 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>169</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>242</v>
+        <v>168</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>35</v>
@@ -4168,62 +4234,62 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>243</v>
+        <v>169</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>244</v>
+        <v>170</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>245</v>
+        <v>171</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>36</v>
@@ -4231,62 +4297,62 @@
     </row>
     <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>173</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>246</v>
+        <v>172</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>247</v>
+        <v>173</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>175</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>248</v>
+        <v>174</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>37</v>
@@ -4294,82 +4360,82 @@
     </row>
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>176</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>247</v>
+        <v>175</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>177</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>249</v>
+        <v>176</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>178</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>250</v>
+        <v>177</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>179</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>230</v>
+        <v>178</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>38</v>
@@ -4377,62 +4443,62 @@
     </row>
     <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>180</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>231</v>
+        <v>179</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>181</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>231</v>
+        <v>180</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G40" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>182</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>251</v>
+        <v>181</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>39</v>
@@ -4440,82 +4506,82 @@
     </row>
     <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>183</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>232</v>
+        <v>182</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>184</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>233</v>
+        <v>183</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>185</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>235</v>
+        <v>184</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>186</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>236</v>
+        <v>185</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G45" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>40</v>
@@ -4523,62 +4589,62 @@
     </row>
     <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>187</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>237</v>
+        <v>186</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F46" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>188</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>238</v>
+        <v>187</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>189</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>239</v>
+        <v>188</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G48" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>41</v>
@@ -4586,82 +4652,82 @@
     </row>
     <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>190</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>238</v>
+        <v>189</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F49" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G49" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>191</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>240</v>
+        <v>190</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>192</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>240</v>
+        <v>191</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G51" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>193</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>252</v>
+        <v>192</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F52" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G52" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>42</v>
@@ -4669,22 +4735,22 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>194</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>243</v>
+        <v>193</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>43</v>
@@ -4692,62 +4758,62 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>195</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>244</v>
+        <v>194</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F54" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G54" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>196</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>253</v>
+        <v>195</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F55" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G55" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>197</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>254</v>
+        <v>196</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="C56" t="s">
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F56" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>44</v>
@@ -4755,62 +4821,62 @@
     </row>
     <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>198</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>255</v>
+        <v>197</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="C57" t="s">
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F57" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G57" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>199</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>255</v>
+        <v>198</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="C58" t="s">
         <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F58" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G58" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>200</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>256</v>
+        <v>199</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G59" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>45</v>
@@ -4818,82 +4884,82 @@
     </row>
     <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>201</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>257</v>
+        <v>200</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F60" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G60" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>202</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>259</v>
+        <v>201</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>203</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>258</v>
+        <v>202</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F62" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>204</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>260</v>
+        <v>203</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F63" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G63" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>45</v>
@@ -4901,294 +4967,294 @@
     </row>
     <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>205</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>262</v>
+        <v>204</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F64" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>206</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>263</v>
+        <v>205</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F65" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G65" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>207</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>264</v>
+        <v>206</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="C66" t="s">
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F66" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>208</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>265</v>
+        <v>207</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="C67" t="s">
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F67" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>209</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>266</v>
+        <v>208</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>210</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>261</v>
+        <v>209</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F69" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>211</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>267</v>
+        <v>210</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="C70" t="s">
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F70" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>212</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>268</v>
+        <v>211</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
       </c>
       <c r="D71" t="s">
+        <v>131</v>
+      </c>
+      <c r="F71" t="s">
+        <v>295</v>
+      </c>
+      <c r="G71" t="s">
         <v>132</v>
-      </c>
-      <c r="F71" t="s">
-        <v>296</v>
-      </c>
-      <c r="G71" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>213</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>269</v>
+        <v>212</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>214</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>270</v>
+        <v>213</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F73" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G73" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>215</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>271</v>
+        <v>214</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="C74" t="s">
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F74" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>216</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>272</v>
+        <v>215</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F75" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G75" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>217</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>273</v>
+        <v>216</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>272</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F76" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G76" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>218</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>274</v>
+        <v>217</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F77" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G77" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
